--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_6_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_6_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3225547.141488093</v>
+        <v>3225547.141488092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800643</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500735</v>
+        <v>16052082.46800643</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177297</v>
+        <v>3940022.790763249</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177297</v>
+        <v>3940022.790763249</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494347534.489019</v>
+        <v>56787597.01858681</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +679,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G2" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -758,13 +758,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G3" t="n">
-        <v>322.5970075731406</v>
+        <v>321.0633076155676</v>
       </c>
       <c r="H3" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T8" t="n">
         <v>560.964918411981</v>
@@ -1207,7 +1207,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y8" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="9">
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
-        <v>560.964918411981</v>
+        <v>559.5765741190048</v>
       </c>
       <c r="U11" t="n">
         <v>648.751427201877</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
         <v>560.964918411981</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1833,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201041</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W17" t="n">
-        <v>636.9851316879694</v>
+        <v>638.3734759809475</v>
       </c>
       <c r="X17" t="n">
         <v>592.2818334606677</v>
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
         <v>347.8590406130752</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756825</v>
       </c>
       <c r="T20" t="n">
         <v>560.964918411981</v>
@@ -2262,37 +2262,37 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201041</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T23" t="n">
         <v>560.964918411981</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S24" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D26" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468735</v>
       </c>
       <c r="E26" t="n">
         <v>404.3632896068686</v>
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2687,10 +2687,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S27" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T27" t="n">
         <v>392.6911708778912</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>404.88962870787</v>
       </c>
       <c r="G29" t="n">
-        <v>396.4956611617123</v>
+        <v>397.8840054527035</v>
       </c>
       <c r="H29" t="n">
         <v>347.8590406129333</v>
@@ -2866,7 +2866,7 @@
         <v>592.2818334605258</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826645</v>
+        <v>509.9290883916754</v>
       </c>
     </row>
     <row r="30">
@@ -2897,7 +2897,7 @@
         <v>301.8178796391094</v>
       </c>
       <c r="I30" t="n">
-        <v>108.9296877779991</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>352.1613821978978</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151046196</v>
+        <v>406.6592151044783</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708777493</v>
@@ -2976,40 +2976,40 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
         <v>14.39810218700126</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>150.8146863564251</v>
@@ -3046,13 +3046,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F32" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G32" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S33" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T33" t="n">
         <v>392.6911708778912</v>
@@ -3210,10 +3210,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>67.808644398718</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>97.40414414470841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>361.0088210686545</v>
+        <v>359.6204767756924</v>
       </c>
       <c r="T35" t="n">
-        <v>559.576574119003</v>
+        <v>560.964918411981</v>
       </c>
       <c r="U35" t="n">
         <v>648.751427201877</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E38" t="n">
-        <v>404.3632896068686</v>
+        <v>402.9749453139061</v>
       </c>
       <c r="F38" t="n">
-        <v>403.5012844150336</v>
+        <v>404.8896287080119</v>
       </c>
       <c r="G38" t="n">
         <v>397.8840054528454</v>
@@ -3635,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S39" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T39" t="n">
         <v>392.6911708778912</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
         <v>449.4745782429939</v>
@@ -3814,7 +3814,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y41" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898399</v>
       </c>
     </row>
     <row r="42">
@@ -3966,10 +3966,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>359.6204767756762</v>
+        <v>359.6204767756879</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4197,16 +4197,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
@@ -4339,49 +4339,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1901.586501346477</v>
+        <v>1901.586501346479</v>
       </c>
       <c r="L2" t="n">
-        <v>2819.17922466306</v>
+        <v>2819.179224663062</v>
       </c>
       <c r="M2" t="n">
-        <v>3301.358424176563</v>
+        <v>3301.358424176565</v>
       </c>
       <c r="N2" t="n">
-        <v>3866.401488049235</v>
+        <v>3866.401488049237</v>
       </c>
       <c r="O2" t="n">
-        <v>4776.556370989979</v>
+        <v>4776.556370989981</v>
       </c>
       <c r="P2" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R2" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4406,10 +4406,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>554.3073408685043</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H3" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4497,22 +4497,22 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K4" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L4" t="n">
-        <v>307.8416045893196</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P4" t="n">
-        <v>457.4949902104934</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="Q4" t="n">
         <v>351.2038120028187</v>
@@ -4549,22 +4549,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C5" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D5" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E5" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F5" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G5" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
@@ -4576,49 +4576,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K5" t="n">
-        <v>1415.008586083262</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L5" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M5" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N5" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O5" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P5" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q5" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R5" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T5" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U5" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V5" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W5" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X5" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y5" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="6">
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4707,34 +4707,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="C7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="D7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="E7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="F7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="G7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="H7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="I7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="J7" t="n">
-        <v>440.0999956178874</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L7" t="n">
         <v>457.4949902104935</v>
@@ -4761,22 +4761,22 @@
         <v>140.96</v>
       </c>
       <c r="T7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="U7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="V7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="W7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="X7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.6133856211738</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="8">
@@ -4813,46 +4813,46 @@
         <v>1101.367131735718</v>
       </c>
       <c r="K8" t="n">
-        <v>1936.671378010443</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L8" t="n">
-        <v>3681.051378010443</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M8" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N8" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O8" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P8" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q8" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R8" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S8" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T8" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U8" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V8" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W8" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X8" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y8" t="n">
         <v>3067.029708403252</v>
@@ -4944,46 +4944,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="C10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="D10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="E10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="F10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="G10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="H10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="I10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="J10" t="n">
-        <v>373.1514491892473</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K10" t="n">
-        <v>390.5464437818534</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>390.5464437818534</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M10" t="n">
-        <v>390.5464437818534</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>390.5464437818534</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
-        <v>426.6131206966359</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="P10" t="n">
         <v>457.4949902104935</v>
@@ -4995,25 +4995,25 @@
         <v>140.96</v>
       </c>
       <c r="S10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="T10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="U10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="V10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="W10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="X10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
       <c r="Y10" t="n">
-        <v>223.6648391925338</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="11">
@@ -5023,22 +5023,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C11" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D11" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E11" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F11" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G11" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
@@ -5047,52 +5047,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L11" t="n">
-        <v>3681.051378010443</v>
+        <v>3071.357825473567</v>
       </c>
       <c r="M11" t="n">
-        <v>4163.230577523946</v>
+        <v>3553.537024987069</v>
       </c>
       <c r="N11" t="n">
-        <v>4728.273641396618</v>
+        <v>4118.580088859741</v>
       </c>
       <c r="O11" t="n">
-        <v>5638.428524337362</v>
+        <v>5028.734971800485</v>
       </c>
       <c r="P11" t="n">
-        <v>6474.295852434775</v>
+        <v>5864.602299897899</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R11" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U11" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V11" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W11" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X11" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y11" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="12">
@@ -5181,22 +5181,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H13" t="n">
         <v>140.96</v>
@@ -5208,49 +5208,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="14">
@@ -5260,22 +5260,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
@@ -5287,49 +5287,49 @@
         <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1936.671378010443</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L14" t="n">
-        <v>3681.051378010443</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M14" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N14" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O14" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P14" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q14" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R14" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S14" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T14" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U14" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V14" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W14" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X14" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y14" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5445,43 +5445,43 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W16" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X16" t="n">
         <v>140.96</v>
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546135</v>
       </c>
       <c r="C17" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048162</v>
       </c>
       <c r="D17" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351343</v>
       </c>
       <c r="E17" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071678</v>
       </c>
       <c r="F17" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342926</v>
       </c>
       <c r="G17" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233376</v>
       </c>
       <c r="H17" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397705</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154227</v>
       </c>
       <c r="K17" t="n">
-        <v>2550.716641651425</v>
+        <v>1936.671378010448</v>
       </c>
       <c r="L17" t="n">
-        <v>3681.051378010443</v>
+        <v>3681.051378010449</v>
       </c>
       <c r="M17" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523952</v>
       </c>
       <c r="N17" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396624</v>
       </c>
       <c r="O17" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337368</v>
       </c>
       <c r="P17" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434781</v>
       </c>
       <c r="Q17" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R17" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464011</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542923</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818859</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908811</v>
       </c>
       <c r="X17" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665712</v>
       </c>
       <c r="Y17" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430554</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H18" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I18" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K18" t="n">
         <v>1250.415257213079</v>
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y19" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="20">
@@ -5734,76 +5734,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069907</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960357</v>
       </c>
       <c r="H20" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397705</v>
       </c>
       <c r="J20" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154227</v>
       </c>
       <c r="K20" t="n">
         <v>1415.008586083262</v>
       </c>
       <c r="L20" t="n">
-        <v>2332.601309399844</v>
+        <v>2631.38304291562</v>
       </c>
       <c r="M20" t="n">
-        <v>3194.417427023049</v>
+        <v>4163.230577523952</v>
       </c>
       <c r="N20" t="n">
-        <v>4845.157279159621</v>
+        <v>4728.273641396624</v>
       </c>
       <c r="O20" t="n">
-        <v>5755.312162100365</v>
+        <v>5638.428524337368</v>
       </c>
       <c r="P20" t="n">
-        <v>6591.179490197778</v>
+        <v>6474.295852434781</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515622</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791558</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.511963638411</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H21" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I21" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K21" t="n">
         <v>1250.415257213079</v>
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="V22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="W22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="Y22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
     </row>
     <row r="23">
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546135</v>
       </c>
       <c r="C23" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048162</v>
       </c>
       <c r="D23" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351343</v>
       </c>
       <c r="E23" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071678</v>
       </c>
       <c r="F23" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342926</v>
       </c>
       <c r="G23" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233376</v>
       </c>
       <c r="H23" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397705</v>
       </c>
       <c r="J23" t="n">
         <v>1101.367131735718</v>
       </c>
       <c r="K23" t="n">
-        <v>2153.765102156982</v>
+        <v>2550.716641651426</v>
       </c>
       <c r="L23" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010449</v>
       </c>
       <c r="M23" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523952</v>
       </c>
       <c r="N23" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396624</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337368</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434781</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237003</v>
       </c>
       <c r="R23" t="n">
-        <v>7048</v>
+        <v>7048.000000000006</v>
       </c>
       <c r="S23" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183184</v>
       </c>
       <c r="T23" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464011</v>
       </c>
       <c r="U23" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542923</v>
       </c>
       <c r="V23" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818859</v>
       </c>
       <c r="W23" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908811</v>
       </c>
       <c r="X23" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665712</v>
       </c>
       <c r="Y23" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430554</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>881.7120959500332</v>
       </c>
       <c r="G24" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448408</v>
       </c>
       <c r="H24" t="n">
-        <v>250.9899876546879</v>
+        <v>250.989987654688</v>
       </c>
       <c r="I24" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149218</v>
       </c>
       <c r="K24" t="n">
         <v>1250.415257213079</v>
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6129,76 +6129,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>140.96</v>
+        <v>140.9600000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967137</v>
       </c>
       <c r="K25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y25" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="26">
@@ -6208,19 +6208,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
         <v>492.3327682960356</v>
@@ -6232,52 +6232,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K26" t="n">
-        <v>2153.765102156982</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L26" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M26" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N26" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O26" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P26" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R26" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="27">
@@ -6335,7 +6335,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S27" t="n">
         <v>5159.222422432123</v>
@@ -6366,22 +6366,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="H28" t="n">
         <v>140.96</v>
@@ -6393,49 +6393,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T28" t="n">
-        <v>293.2980670266921</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2578.759347547275</v>
+        <v>2580.161715517973</v>
       </c>
       <c r="C29" t="n">
-        <v>2124.744622049445</v>
+        <v>2126.146990020143</v>
       </c>
       <c r="D29" t="n">
-        <v>1710.26062635277</v>
+        <v>1711.662994323468</v>
       </c>
       <c r="E29" t="n">
-        <v>1301.812859073248</v>
+        <v>1303.215227043946</v>
       </c>
       <c r="F29" t="n">
-        <v>892.8334361360057</v>
+        <v>894.2358041067039</v>
       </c>
       <c r="G29" t="n">
         <v>492.3327682958923</v>
@@ -6469,52 +6469,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>2153.765102156982</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L29" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M29" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N29" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O29" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P29" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q29" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R29" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.34462518332</v>
+        <v>6683.344625183322</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394464291</v>
+        <v>6116.713394464293</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922543346</v>
+        <v>5461.408922543348</v>
       </c>
       <c r="V29" t="n">
-        <v>4825.195766819425</v>
+        <v>4825.195766819426</v>
       </c>
       <c r="W29" t="n">
-        <v>4180.37407390952</v>
+        <v>4180.374073909522</v>
       </c>
       <c r="X29" t="n">
-        <v>3582.109595666565</v>
+        <v>3582.109595666567</v>
       </c>
       <c r="Y29" t="n">
-        <v>3065.62734043155</v>
+        <v>3067.029708402248</v>
       </c>
     </row>
     <row r="30">
@@ -6524,31 +6524,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.1120342349</v>
+        <v>2287.112034235044</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647926438</v>
+        <v>1922.364647926581</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.912438939003</v>
+        <v>1570.912438939146</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007401861</v>
+        <v>1224.779007402004</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959496033</v>
+        <v>881.7120959497466</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327445541</v>
+        <v>555.8565327446975</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876545446</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I30" t="n">
         <v>140.96</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295150621</v>
+        <v>558.8475295150622</v>
       </c>
       <c r="K30" t="n">
         <v>1250.41525721336</v>
@@ -6575,25 +6575,25 @@
         <v>5569.989306374176</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422430115</v>
+        <v>5159.222422430258</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674068753</v>
+        <v>4762.564674068895</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619041454</v>
+        <v>4358.520619041597</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975413799</v>
+        <v>3939.822975413942</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427020176</v>
+        <v>3503.082427020319</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649802756</v>
+        <v>3078.978649802899</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000544178</v>
+        <v>2675.553000544321</v>
       </c>
     </row>
     <row r="31">
@@ -6603,25 +6603,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="C31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="D31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="E31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="F31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="G31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="H31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="I31" t="n">
         <v>140.96</v>
@@ -6630,49 +6630,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>293.2980670266921</v>
       </c>
       <c r="U31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="X31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="Y31" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H32" t="n">
         <v>140.96</v>
@@ -6712,46 +6712,46 @@
         <v>2124.71495243113</v>
       </c>
       <c r="L32" t="n">
-        <v>3681.051378010443</v>
+        <v>3681.051378010445</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523947</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.273641396619</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337363</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434777</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362236999</v>
       </c>
       <c r="R32" t="n">
-        <v>7048</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="33">
@@ -6809,7 +6809,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S33" t="n">
         <v>5159.222422432123</v>
@@ -6840,25 +6840,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="C34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="D34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="E34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="F34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="G34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="H34" t="n">
-        <v>239.3480243885944</v>
+        <v>140.96</v>
       </c>
       <c r="I34" t="n">
         <v>140.96</v>
@@ -6867,49 +6867,49 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="X34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Y34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C35" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D35" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E35" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044377</v>
       </c>
       <c r="F35" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069908</v>
       </c>
       <c r="G35" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960359</v>
       </c>
       <c r="H35" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="I35" t="n">
-        <v>140.96</v>
+        <v>216.5482970397707</v>
       </c>
       <c r="J35" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154228</v>
       </c>
       <c r="K35" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L35" t="n">
-        <v>3083.800289043491</v>
+        <v>3681.051378010459</v>
       </c>
       <c r="M35" t="n">
-        <v>3565.979488556994</v>
+        <v>4163.230577523962</v>
       </c>
       <c r="N35" t="n">
-        <v>4131.022552429667</v>
+        <v>4728.273641396634</v>
       </c>
       <c r="O35" t="n">
-        <v>5041.17743537041</v>
+        <v>5638.428524337378</v>
       </c>
       <c r="P35" t="n">
-        <v>5877.044763467824</v>
+        <v>6474.295852434791</v>
       </c>
       <c r="Q35" t="n">
-        <v>6943.558825806924</v>
+        <v>6931.116362237013</v>
       </c>
       <c r="R35" t="n">
-        <v>7048</v>
+        <v>7048.000000000016</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183177</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T35" t="n">
         <v>6118.11576243671</v>
       </c>
       <c r="U35" t="n">
-        <v>5462.811290515621</v>
+        <v>5462.811290515622</v>
       </c>
       <c r="V35" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791558</v>
       </c>
       <c r="W35" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X35" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638411</v>
       </c>
       <c r="Y35" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="36">
@@ -7010,19 +7010,19 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500335</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448407</v>
+        <v>555.856532744841</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546882</v>
       </c>
       <c r="I36" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149219</v>
       </c>
       <c r="K36" t="n">
         <v>1250.415257213079</v>
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="C37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="D37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="E37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="F37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="G37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="H37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="I37" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967138</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="T37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="U37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="V37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="W37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="X37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="Y37" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546144</v>
       </c>
       <c r="C38" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048171</v>
       </c>
       <c r="D38" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351353</v>
       </c>
       <c r="E38" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044377</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069908</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960359</v>
       </c>
       <c r="H38" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="I38" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397707</v>
       </c>
       <c r="J38" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154228</v>
       </c>
       <c r="K38" t="n">
         <v>2124.71495243113</v>
       </c>
       <c r="L38" t="n">
-        <v>3071.357825473565</v>
+        <v>3681.051378010459</v>
       </c>
       <c r="M38" t="n">
-        <v>3553.537024987068</v>
+        <v>4163.230577523962</v>
       </c>
       <c r="N38" t="n">
-        <v>4118.58008885974</v>
+        <v>4728.273641396634</v>
       </c>
       <c r="O38" t="n">
-        <v>5028.734971800483</v>
+        <v>5638.428524337378</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299897897</v>
+        <v>6474.295852434791</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237013</v>
       </c>
       <c r="R38" t="n">
-        <v>7048</v>
+        <v>7048.000000000016</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183194</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464021</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542932</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818868</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.37407390882</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665721</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430563</v>
       </c>
     </row>
     <row r="39">
@@ -7247,19 +7247,19 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500335</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448407</v>
+        <v>555.856532744841</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546882</v>
       </c>
       <c r="I39" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149219</v>
       </c>
       <c r="K39" t="n">
         <v>1250.415257213079</v>
@@ -7283,7 +7283,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R39" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S39" t="n">
         <v>5159.222422432123</v>
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="C40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="D40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="E40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="F40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="H40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="I40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967138</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893199</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="U40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="V40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="W40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="X40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.96</v>
+        <v>140.9600000000003</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044377</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069908</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960359</v>
       </c>
       <c r="H41" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L41" t="n">
-        <v>2595.354589746543</v>
+        <v>2683.01470158037</v>
       </c>
       <c r="M41" t="n">
-        <v>3077.533789260046</v>
+        <v>3165.193901093872</v>
       </c>
       <c r="N41" t="n">
-        <v>4728.273641396618</v>
+        <v>3730.236964966544</v>
       </c>
       <c r="O41" t="n">
-        <v>5638.428524337362</v>
+        <v>5145.618609563498</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>5981.485937660912</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>7048.000000000012</v>
       </c>
       <c r="R41" t="n">
-        <v>7048</v>
+        <v>7048.000000000012</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183189</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.713394464016</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922542929</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766818864</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.374073908816</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665717</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="42">
@@ -7484,19 +7484,19 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500335</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448409</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546881</v>
       </c>
       <c r="I42" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149219</v>
       </c>
       <c r="K42" t="n">
         <v>1250.415257213079</v>
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="C43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="D43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="E43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="F43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="G43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="H43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="I43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967138</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="W43" t="n">
-        <v>140.96</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="X43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
     </row>
     <row r="44">
@@ -7630,55 +7630,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2580.161715518834</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2126.14699002086</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1711.662994324042</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1303.215227044377</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>894.2358041069908</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960359</v>
       </c>
       <c r="H44" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397707</v>
       </c>
       <c r="J44" t="n">
-        <v>675.3654425154225</v>
+        <v>675.3654425154227</v>
       </c>
       <c r="K44" t="n">
-        <v>2124.71495243113</v>
+        <v>1936.671378010452</v>
       </c>
       <c r="L44" t="n">
-        <v>3681.051378010443</v>
+        <v>3681.051378010455</v>
       </c>
       <c r="M44" t="n">
-        <v>4163.230577523946</v>
+        <v>4163.230577523957</v>
       </c>
       <c r="N44" t="n">
-        <v>4728.273641396618</v>
+        <v>4728.27364139663</v>
       </c>
       <c r="O44" t="n">
-        <v>5638.428524337362</v>
+        <v>5638.428524337373</v>
       </c>
       <c r="P44" t="n">
-        <v>6474.295852434775</v>
+        <v>6474.295852434787</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>6931.116362237009</v>
       </c>
       <c r="R44" t="n">
-        <v>7048</v>
+        <v>7048.000000000012</v>
       </c>
       <c r="S44" t="n">
         <v>6684.746993155883</v>
@@ -7687,19 +7687,19 @@
         <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5462.811290515621</v>
+        <v>5462.811290515622</v>
       </c>
       <c r="V44" t="n">
-        <v>4826.598134791557</v>
+        <v>4826.598134791558</v>
       </c>
       <c r="W44" t="n">
-        <v>4181.776441881509</v>
+        <v>4181.77644188151</v>
       </c>
       <c r="X44" t="n">
-        <v>3583.51196363841</v>
+        <v>3583.511963638411</v>
       </c>
       <c r="Y44" t="n">
-        <v>3067.029708403252</v>
+        <v>3067.029708403253</v>
       </c>
     </row>
     <row r="45">
@@ -7721,19 +7721,19 @@
         <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500335</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448407</v>
+        <v>555.8565327448409</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546881</v>
       </c>
       <c r="I45" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149217</v>
+        <v>558.8475295149219</v>
       </c>
       <c r="K45" t="n">
         <v>1250.415257213079</v>
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="C46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="D46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="E46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="F46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="G46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="H46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="I46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967138</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="U46" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="V46" t="n">
-        <v>155.5035375626275</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="W46" t="n">
-        <v>140.96</v>
+        <v>307.8416045893198</v>
       </c>
       <c r="X46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.96</v>
+        <v>140.9600000000002</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>491.4928437002177</v>
+        <v>491.49284370022</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8224,10 +8224,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L5" t="n">
-        <v>746.2187031047679</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8242,7 +8242,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>294.54111633436</v>
@@ -8461,10 +8461,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K8" t="n">
-        <v>96.62737647160202</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L8" t="n">
-        <v>835.1386633165826</v>
+        <v>214.8909222650873</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>96.62737647160202</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
-        <v>835.1386633165826</v>
+        <v>29.3435855816706</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8716,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R11" t="n">
         <v>294.54111633436</v>
@@ -8935,10 +8935,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>526.9321130577587</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L14" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9169,13 +9169,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>716.8751175230994</v>
+        <v>526.9321130577639</v>
       </c>
       <c r="L17" t="n">
-        <v>214.8909222650855</v>
+        <v>835.1386633165846</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9412,13 +9412,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>301.7997308240153</v>
       </c>
       <c r="M20" t="n">
-        <v>383.4716344542435</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N20" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>430.3047365861567</v>
       </c>
       <c r="K23" t="n">
-        <v>315.9139665186112</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>214.8909222650923</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>294.54111633436</v>
@@ -9880,13 +9880,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>315.9139665186112</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9901,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>294.54111633436</v>
@@ -10117,13 +10117,13 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>315.9139665186112</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>294.54111633436</v>
@@ -10360,7 +10360,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L32" t="n">
-        <v>645.1956588512421</v>
+        <v>645.1956588512439</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L35" t="n">
-        <v>835.1386633165826</v>
+        <v>645.1956588512589</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10612,10 +10612,10 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>281.9729713142314</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>716.8751175230994</v>
       </c>
       <c r="L38" t="n">
-        <v>29.34358558166878</v>
+        <v>645.1956588512589</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10849,7 +10849,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>294.54111633436</v>
@@ -11062,34 +11062,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>265.4073538855534</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>510.3300622790002</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>716.8751175230994</v>
+        <v>526.932113057768</v>
       </c>
       <c r="L44" t="n">
-        <v>645.1956588512421</v>
+        <v>835.138663316586</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23439,7 +23439,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H13" t="n">
-        <v>40.13443591884794</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I13" t="n">
         <v>97.40414414470841</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23721,10 +23721,10 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
-        <v>247.4436454301076</v>
+        <v>82.23085688668112</v>
       </c>
       <c r="Y16" t="n">
         <v>287.4653528494624</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.388344292971112</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>287.1138003370787</v>
+        <v>121.9010117936523</v>
       </c>
       <c r="C19" t="n">
         <v>272.7252466480447</v>
@@ -23913,7 +23913,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H19" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I19" t="n">
         <v>97.40414414470841</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.388344292971965</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H22" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I22" t="n">
         <v>97.40414414470841</v>
@@ -24180,7 +24180,7 @@
         <v>505.228266425598</v>
       </c>
       <c r="R22" t="n">
-        <v>608.1413738827905</v>
+        <v>442.9285853393641</v>
       </c>
       <c r="S22" t="n">
         <v>316.45975839138</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.388344292971112</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S24" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>287.1138003370787</v>
+        <v>121.9010117936523</v>
       </c>
       <c r="C25" t="n">
         <v>272.7252466480447</v>
@@ -24387,7 +24387,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H25" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I25" t="n">
         <v>97.40414414470841</v>
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1.388344292976228</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24575,10 +24575,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S27" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H28" t="n">
-        <v>205.3472244622743</v>
+        <v>40.13443591884791</v>
       </c>
       <c r="I28" t="n">
         <v>97.40414414470841</v>
@@ -24660,10 +24660,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T28" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
         <v>199.1703102162162</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.388344290991142</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24754,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.388344291130977</v>
       </c>
     </row>
     <row r="30">
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699954189444</v>
+        <v>1.533699954330757</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>205.3472244622743</v>
       </c>
       <c r="I31" t="n">
-        <v>83.00604195770715</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T31" t="n">
-        <v>198.7676812603561</v>
+        <v>184.3695790733548</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24934,13 +24934,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S33" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25098,10 +25098,10 @@
         <v>242.4092826775956</v>
       </c>
       <c r="H34" t="n">
-        <v>137.5385800635563</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>97.40414414470841</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
@@ -25210,10 +25210,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.388344292962074</v>
       </c>
       <c r="T35" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25329,13 +25329,13 @@
         <v>280.9809048369565</v>
       </c>
       <c r="F37" t="n">
-        <v>274.3828559677419</v>
+        <v>109.1700674243156</v>
       </c>
       <c r="G37" t="n">
         <v>242.4092826775956</v>
       </c>
       <c r="H37" t="n">
-        <v>40.13443591884794</v>
+        <v>205.3472244622743</v>
       </c>
       <c r="I37" t="n">
         <v>97.40414414470841</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.388344292962472</v>
       </c>
       <c r="F38" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25523,10 +25523,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S39" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692971</v>
       </c>
       <c r="U40" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
         <v>226.3728098387097</v>
@@ -25633,7 +25633,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25702,7 +25702,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.388344292966451</v>
       </c>
     </row>
     <row r="42">
@@ -25854,10 +25854,10 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
-        <v>247.4436454301076</v>
+        <v>82.23085688668115</v>
       </c>
       <c r="Y43" t="n">
         <v>287.4653528494624</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>1.388344292978275</v>
+        <v>1.388344292966565</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26085,16 +26085,16 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X46" t="n">
-        <v>247.4436454301076</v>
+        <v>82.23085688668115</v>
       </c>
       <c r="Y46" t="n">
         <v>287.4653528494624</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15273.56714929389</v>
+        <v>1265610.825518069</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30280.78358954761</v>
+        <v>2493503.439842348</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45288.00002980132</v>
+        <v>3721396.054166629</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62368.72817233024</v>
+        <v>4821237.927791083</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79449.45631485918</v>
+        <v>5921079.801415537</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96530.18445738811</v>
+        <v>7020921.675039983</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113610.912599917</v>
+        <v>8120763.54866443</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130691.640742446</v>
+        <v>9220605.422288876</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147772.3688849749</v>
+        <v>10320447.29591332</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164853.0970275021</v>
+        <v>11420289.16953804</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181933.8251700311</v>
+        <v>12520131.04316249</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>199014.55331256</v>
+        <v>13619972.91678694</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216095.2814550891</v>
+        <v>14719814.7904114</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233176.0095976183</v>
+        <v>15819656.66403586</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250256.7377401474</v>
+        <v>16919498.53766033</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.206257761</v>
+        <v>976017.2062577608</v>
       </c>
       <c r="C2" t="n">
+        <v>976017.2062577608</v>
+      </c>
+      <c r="D2" t="n">
         <v>976017.2062577606</v>
       </c>
-      <c r="D2" t="n">
-        <v>976017.2062577605</v>
-      </c>
       <c r="E2" t="n">
-        <v>874233.2841630245</v>
+        <v>874233.2841630246</v>
       </c>
       <c r="F2" t="n">
-        <v>874233.2841630245</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="G2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.2841630251</v>
       </c>
       <c r="H2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630252</v>
       </c>
       <c r="I2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630254</v>
       </c>
       <c r="J2" t="n">
-        <v>874233.2841630247</v>
+        <v>874233.284163025</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632586</v>
+        <v>874233.2841632453</v>
       </c>
       <c r="L2" t="n">
         <v>874233.284163025</v>
       </c>
       <c r="M2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.284163026</v>
       </c>
       <c r="N2" t="n">
-        <v>874233.2841630249</v>
+        <v>874233.2841630258</v>
       </c>
       <c r="O2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630254</v>
       </c>
       <c r="P2" t="n">
-        <v>874233.2841630246</v>
+        <v>874233.2841630252</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.001776687800884e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>620224</v>
+        <v>620223.9999999998</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.280568540096283e-09</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,46 +26426,46 @@
         <v>114221.2779508281</v>
       </c>
       <c r="C4" t="n">
-        <v>113919.326896347</v>
+        <v>113919.3268963469</v>
       </c>
       <c r="D4" t="n">
         <v>113616.9662264139</v>
       </c>
       <c r="E4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769594</v>
       </c>
       <c r="F4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769594</v>
       </c>
       <c r="G4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769601</v>
       </c>
       <c r="H4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.936727696</v>
       </c>
       <c r="I4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.936727696</v>
       </c>
       <c r="J4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769594</v>
       </c>
       <c r="K4" t="n">
-        <v>38928.93672786301</v>
+        <v>38928.93672785347</v>
       </c>
       <c r="L4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769594</v>
       </c>
       <c r="M4" t="n">
-        <v>38928.9367276959</v>
+        <v>38928.93672769613</v>
       </c>
       <c r="N4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769613</v>
       </c>
       <c r="O4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769605</v>
       </c>
       <c r="P4" t="n">
-        <v>38928.93672769592</v>
+        <v>38928.93672769607</v>
       </c>
     </row>
     <row r="5">
@@ -26490,13 +26490,13 @@
         <v>138979.4</v>
       </c>
       <c r="G5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000001</v>
       </c>
       <c r="J5" t="n">
         <v>138979.4</v>
@@ -26508,16 +26508,16 @@
         <v>138979.4</v>
       </c>
       <c r="M5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000002</v>
       </c>
       <c r="N5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000002</v>
       </c>
       <c r="O5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000002</v>
       </c>
       <c r="P5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000002</v>
       </c>
     </row>
     <row r="6">
@@ -26530,46 +26530,46 @@
         <v>-1355510.071693067</v>
       </c>
       <c r="C6" t="n">
-        <v>689490.8793614137</v>
+        <v>689490.8793614139</v>
       </c>
       <c r="D6" t="n">
-        <v>689793.2400313466</v>
+        <v>689793.2400313467</v>
       </c>
       <c r="E6" t="n">
-        <v>696324.9474353286</v>
+        <v>696324.9474353287</v>
       </c>
       <c r="F6" t="n">
-        <v>696324.9474353286</v>
+        <v>696324.9474353287</v>
       </c>
       <c r="G6" t="n">
-        <v>696324.9474353289</v>
+        <v>696324.9474353287</v>
       </c>
       <c r="H6" t="n">
+        <v>696324.9474353292</v>
+      </c>
+      <c r="I6" t="n">
+        <v>696324.9474353294</v>
+      </c>
+      <c r="J6" t="n">
+        <v>76100.94743532926</v>
+      </c>
+      <c r="K6" t="n">
+        <v>696324.9474353918</v>
+      </c>
+      <c r="L6" t="n">
         <v>696324.947435329</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
+        <v>696324.9474353284</v>
+      </c>
+      <c r="N6" t="n">
+        <v>696324.9474353294</v>
+      </c>
+      <c r="O6" t="n">
+        <v>696324.9474353292</v>
+      </c>
+      <c r="P6" t="n">
         <v>696324.947435329</v>
-      </c>
-      <c r="J6" t="n">
-        <v>76100.94743532885</v>
-      </c>
-      <c r="K6" t="n">
-        <v>696324.9474353956</v>
-      </c>
-      <c r="L6" t="n">
-        <v>696324.9474353291</v>
-      </c>
-      <c r="M6" t="n">
-        <v>696324.9474353291</v>
-      </c>
-      <c r="N6" t="n">
-        <v>696324.947435329</v>
-      </c>
-      <c r="O6" t="n">
-        <v>696324.9474353291</v>
-      </c>
-      <c r="P6" t="n">
-        <v>696324.9474353287</v>
       </c>
     </row>
   </sheetData>
@@ -26934,13 +26934,13 @@
         <v>1762</v>
       </c>
       <c r="G4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="I4" t="n">
-        <v>1762</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="J4" t="n">
         <v>1762</v>
@@ -26952,16 +26952,16 @@
         <v>1762</v>
       </c>
       <c r="M4" t="n">
-        <v>1762</v>
+        <v>1762.000000000004</v>
       </c>
       <c r="N4" t="n">
-        <v>1762</v>
+        <v>1762.000000000004</v>
       </c>
       <c r="O4" t="n">
-        <v>1762</v>
+        <v>1762.000000000003</v>
       </c>
       <c r="P4" t="n">
-        <v>1762</v>
+        <v>1762.000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,16 +27144,16 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27523,10 +27523,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27602,13 +27602,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.533699957572992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27696,10 +27696,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M4" t="n">
-        <v>258.8126637769763</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
         <v>168.0209277307011</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27933,7 +27933,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M7" t="n">
         <v>107.6476277959926</v>
@@ -27957,7 +27957,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T7" t="n">
-        <v>349.9327172413398</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U7" t="n">
         <v>150.8146863564251</v>
@@ -28033,7 +28033,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28051,7 +28051,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28082,7 +28082,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.533699957573035</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28173,16 +28173,16 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6476277959926</v>
+        <v>258.8126637769763</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>304.4892065993283</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
-        <v>400</v>
+        <v>368.8061924102448</v>
       </c>
       <c r="Q10" t="n">
         <v>400</v>
@@ -28191,7 +28191,7 @@
         <v>400</v>
       </c>
       <c r="S10" t="n">
-        <v>400</v>
+        <v>316.45975839138</v>
       </c>
       <c r="T10" t="n">
         <v>198.7676812603561</v>
@@ -29710,7 +29710,7 @@
         <v>1.418811734765769e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.418811734765769e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29741,7 +29741,7 @@
         <v>1.418811734765769e-10</v>
       </c>
       <c r="I30" t="n">
-        <v>1.418811734765769e-10</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>1.418811734765769e-10</v>
@@ -34831,7 +34831,7 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>1238.607130132378</v>
+        <v>1238.607130132381</v>
       </c>
       <c r="L2" t="n">
         <v>926.8613366834172</v>
@@ -34992,10 +34992,10 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="M4" t="n">
-        <v>151.1650359809836</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -35068,10 +35068,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>747.114286432161</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L5" t="n">
-        <v>1673.080039788185</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35086,7 +35086,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
         <v>118.0642805686905</v>
@@ -35229,7 +35229,7 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -35253,7 +35253,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -35305,10 +35305,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K8" t="n">
-        <v>843.741662903763</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L8" t="n">
-        <v>1762</v>
+        <v>1141.752258948505</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35469,16 +35469,16 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>36.43098678260856</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>31.19380758975518</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35487,7 +35487,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>83.54024160861997</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -35539,13 +35539,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>843.741662903763</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L11" t="n">
-        <v>1762</v>
+        <v>956.2049222650876</v>
       </c>
       <c r="M11" t="n">
         <v>487.0496964782857</v>
@@ -35560,7 +35560,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R11" t="n">
         <v>118.0642805686905</v>
@@ -35779,10 +35779,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>1274.04639948992</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L14" t="n">
-        <v>1762</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
@@ -36013,13 +36013,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.046399489925</v>
       </c>
       <c r="L17" t="n">
-        <v>1141.752258948503</v>
+        <v>1762.000000000002</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36253,16 +36253,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K20" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L20" t="n">
-        <v>926.861336683417</v>
+        <v>1228.661067507433</v>
       </c>
       <c r="M20" t="n">
-        <v>870.5213309325291</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N20" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36274,7 +36274,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36490,10 +36490,10 @@
         <v>893.7563986827749</v>
       </c>
       <c r="K23" t="n">
-        <v>1063.028252950772</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>1141.752258948509</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36508,7 +36508,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
         <v>118.0642805686905</v>
@@ -36724,13 +36724,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K26" t="n">
-        <v>1063.028252950772</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L26" t="n">
-        <v>926.861336683417</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
@@ -36745,7 +36745,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
         <v>118.0642805686905</v>
@@ -36961,13 +36961,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>1063.028252950772</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M29" t="n">
         <v>487.0496964782857</v>
@@ -36982,7 +36982,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
         <v>118.0642805686905</v>
@@ -37204,7 +37204,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L32" t="n">
-        <v>1572.05699553466</v>
+        <v>1572.056995534661</v>
       </c>
       <c r="M32" t="n">
         <v>487.0496964782857</v>
@@ -37432,16 +37432,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L35" t="n">
-        <v>1762</v>
+        <v>1572.056995534676</v>
       </c>
       <c r="M35" t="n">
         <v>487.0496964782857</v>
@@ -37456,10 +37456,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q35" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
-        <v>105.4961355485618</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37678,7 +37678,7 @@
         <v>1463.98940395526</v>
       </c>
       <c r="L38" t="n">
-        <v>956.2049222650858</v>
+        <v>1572.056995534676</v>
       </c>
       <c r="M38" t="n">
         <v>487.0496964782857</v>
@@ -37693,7 +37693,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q38" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R38" t="n">
         <v>118.0642805686905</v>
@@ -37906,34 +37906,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321607</v>
       </c>
       <c r="L41" t="n">
-        <v>1192.268690568971</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N41" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1429.678428885812</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38149,10 +38149,10 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1463.98940395526</v>
+        <v>1274.046399489929</v>
       </c>
       <c r="L44" t="n">
-        <v>1572.05699553466</v>
+        <v>1762.000000000003</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
